--- a/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC6E6EB-9228-4696-89D2-A104BB6B94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3522E8F-1010-451A-81B2-EB07AE5C649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC135AB-8A64-4CC9-93DF-A655F6C16328}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41C3C7A4-0A29-4486-9236-5156EF6948EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
-  <si>
-    <t>dukeAdic en 2007 (Tasa respuesta: 99,91%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="591">
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>18,45%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>89,33%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,49 +425,49 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>8,68%</t>
+    <t>8,6%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>91,32%</t>
+    <t>91,4%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -476,1420 +476,1342 @@
     <t>16,69%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>83,72%</t>
   </si>
   <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>73,73%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AEACB0-F786-4289-B8F0-30F9753976BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E2B096-252E-49F6-AE2F-149D181FF5C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3376,7 +3298,7 @@
         <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -3424,7 +3346,7 @@
         <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>139</v>
@@ -3743,7 +3665,7 @@
         <v>5449</v>
       </c>
       <c r="N29" s="7">
-        <v>5556817</v>
+        <v>5556818</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -3794,7 +3716,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6649248</v>
+        <v>6649249</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90CE77F-5518-49E5-9AF5-32BBC61BED70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDF7E4-A2E8-444E-B2A9-D4C5757BD40A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4171,7 +4093,7 @@
         <v>781</v>
       </c>
       <c r="N8" s="7">
-        <v>840789</v>
+        <v>840788</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>198</v>
@@ -4222,7 +4144,7 @@
         <v>951</v>
       </c>
       <c r="N9" s="7">
-        <v>1028276</v>
+        <v>1028275</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4263,13 +4185,13 @@
         <v>43855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -4278,13 +4200,13 @@
         <v>80492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4221,13 @@
         <v>287409</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -4314,13 +4236,13 @@
         <v>294986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>561</v>
@@ -4329,13 +4251,13 @@
         <v>582395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,28 +4325,28 @@
         <v>96975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
       </c>
       <c r="I13" s="7">
-        <v>144678</v>
+        <v>144679</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -4433,13 +4355,13 @@
         <v>241653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,10 +4376,10 @@
         <v>562259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>228</v>
@@ -4517,7 +4439,7 @@
         <v>620</v>
       </c>
       <c r="I15" s="7">
-        <v>667291</v>
+        <v>667292</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4576,10 +4498,10 @@
         <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4588,13 +4510,13 @@
         <v>102086</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4531,13 @@
         <v>168595</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4624,13 +4546,13 @@
         <v>161527</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -4639,13 +4561,13 @@
         <v>330123</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4635,13 @@
         <v>35362</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -4728,13 +4650,13 @@
         <v>40842</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4743,13 +4665,13 @@
         <v>76204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4686,13 @@
         <v>237565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4779,13 +4701,13 @@
         <v>236060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -4794,13 +4716,13 @@
         <v>473625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4790,13 @@
         <v>90074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -4886,10 +4808,10 @@
         <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -4898,13 +4820,13 @@
         <v>181679</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4841,13 @@
         <v>566356</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>546</v>
@@ -4937,10 +4859,10 @@
         <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>1076</v>
@@ -4949,13 +4871,13 @@
         <v>1157658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4945,13 @@
         <v>192268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>172</v>
@@ -5038,13 +4960,13 @@
         <v>188887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
@@ -5053,13 +4975,13 @@
         <v>381155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +4996,13 @@
         <v>583719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>584</v>
@@ -5089,13 +5011,13 @@
         <v>633805</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1125</v>
@@ -5104,13 +5026,13 @@
         <v>1217524</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5100,13 @@
         <v>579695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>613</v>
@@ -5193,13 +5115,13 @@
         <v>671062</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>1143</v>
@@ -5208,13 +5130,13 @@
         <v>1250757</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5151,13 @@
         <v>2826057</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2663</v>
@@ -5244,13 +5166,13 @@
         <v>2860926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5321</v>
@@ -5259,13 +5181,13 @@
         <v>5686984</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86922E83-C135-4CED-B97C-5E2AA61AC2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D851B30-33A9-42BF-A292-76FD2ADF3416}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5472,10 +5394,10 @@
         <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5484,13 +5406,13 @@
         <v>63547</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -5499,13 +5421,13 @@
         <v>117995</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,10 +5445,10 @@
         <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>212</v>
@@ -5535,13 +5457,13 @@
         <v>220743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>427</v>
@@ -5550,13 +5472,13 @@
         <v>457972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5546,13 @@
         <v>91189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
@@ -5639,13 +5561,13 @@
         <v>103612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -5654,13 +5576,13 @@
         <v>194801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,10 +5600,10 @@
         <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>387</v>
@@ -5690,13 +5612,13 @@
         <v>417553</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>774</v>
@@ -5705,13 +5627,13 @@
         <v>826942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5701,13 @@
         <v>46103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5794,13 +5716,13 @@
         <v>62382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5809,13 +5731,13 @@
         <v>108485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5752,13 @@
         <v>270556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -5845,13 +5767,13 @@
         <v>273043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>552</v>
@@ -5860,13 +5782,13 @@
         <v>543599</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5856,13 @@
         <v>29038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -5952,10 +5874,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5964,13 +5886,13 @@
         <v>69193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5907,13 @@
         <v>339868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -6003,10 +5925,10 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>648</v>
@@ -6015,13 +5937,13 @@
         <v>686071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6011,13 @@
         <v>27946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6104,13 +6026,13 @@
         <v>19198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6119,13 +6041,13 @@
         <v>47144</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6062,13 @@
         <v>182209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6155,13 +6077,13 @@
         <v>199389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -6170,13 +6092,13 @@
         <v>381598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6166,13 @@
         <v>41878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -6259,13 +6181,13 @@
         <v>66472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -6274,13 +6196,13 @@
         <v>108350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6217,13 @@
         <v>221245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6310,13 +6232,13 @@
         <v>206643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>420</v>
@@ -6325,13 +6247,13 @@
         <v>427888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6321,13 @@
         <v>116799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -6414,13 +6336,13 @@
         <v>140719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -6429,13 +6351,13 @@
         <v>257518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6372,13 @@
         <v>536191</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -6465,13 +6387,13 @@
         <v>541389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>983</v>
@@ -6480,13 +6402,13 @@
         <v>1077579</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6476,13 @@
         <v>98102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6569,13 +6491,13 @@
         <v>122142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -6584,13 +6506,13 @@
         <v>220243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6527,13 @@
         <v>676834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>645</v>
@@ -6620,13 +6542,13 @@
         <v>702712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>1295</v>
@@ -6635,13 +6557,13 @@
         <v>1379547</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6631,13 @@
         <v>505503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="H28" s="7">
         <v>569</v>
@@ -6724,13 +6646,13 @@
         <v>618226</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>1051</v>
@@ -6739,13 +6661,13 @@
         <v>1123729</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6682,13 @@
         <v>2873521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="H29" s="7">
         <v>2752</v>
@@ -6778,10 +6700,10 @@
         <v>449</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="M29" s="7">
         <v>5487</v>
@@ -6790,10 +6712,10 @@
         <v>5781197</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>172</v>
@@ -6876,7 +6798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09E6A6-F536-40A5-A3C7-E284D199D025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C42C3-1642-4863-8178-8EA6F52EFD32}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6815,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +6922,13 @@
         <v>24624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -7015,13 +6937,13 @@
         <v>23599</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -7030,13 +6952,13 @@
         <v>48224</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +6973,13 @@
         <v>232229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H5" s="7">
         <v>485</v>
@@ -7066,13 +6988,13 @@
         <v>245654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="M5" s="7">
         <v>779</v>
@@ -7081,13 +7003,13 @@
         <v>477881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>469</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7077,13 @@
         <v>59306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -7170,13 +7092,13 @@
         <v>72746</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -7185,13 +7107,13 @@
         <v>132051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7128,13 @@
         <v>459991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H8" s="7">
         <v>614</v>
@@ -7221,13 +7143,13 @@
         <v>479292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -7236,13 +7158,13 @@
         <v>939284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7232,13 @@
         <v>44644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -7325,13 +7247,13 @@
         <v>64261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>491</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -7340,13 +7262,13 @@
         <v>108905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>504</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7283,13 @@
         <v>264484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>508</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -7376,13 +7298,13 @@
         <v>291781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>498</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -7391,13 +7313,13 @@
         <v>556265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>512</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7387,13 @@
         <v>33032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -7480,13 +7402,13 @@
         <v>45875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="M13" s="7">
         <v>111</v>
@@ -7495,13 +7417,13 @@
         <v>78907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7438,13 @@
         <v>286191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -7531,13 +7453,13 @@
         <v>378481</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
@@ -7546,13 +7468,13 @@
         <v>664671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7542,13 @@
         <v>35558</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>532</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -7635,13 +7557,13 @@
         <v>33729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>535</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -7650,13 +7572,13 @@
         <v>69287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>536</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,10 +7593,10 @@
         <v>160434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>540</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>526</v>
@@ -7686,13 +7608,13 @@
         <v>197767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>633</v>
@@ -7701,13 +7623,13 @@
         <v>358201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7697,13 @@
         <v>50175</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>548</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -7793,10 +7715,10 @@
         <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>551</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -7805,13 +7727,13 @@
         <v>99076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7748,13 @@
         <v>226503</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>557</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -7844,10 +7766,10 @@
         <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>644</v>
@@ -7856,13 +7778,13 @@
         <v>453225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7852,13 @@
         <v>75261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
         <v>142</v>
@@ -7945,13 +7867,13 @@
         <v>209639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>226</v>
@@ -7960,13 +7882,13 @@
         <v>284900</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7903,13 @@
         <v>550099</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>808</v>
@@ -7996,13 +7918,13 @@
         <v>588335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>1320</v>
@@ -8011,13 +7933,13 @@
         <v>1138435</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8007,13 @@
         <v>216883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>381</v>
@@ -8100,13 +8022,13 @@
         <v>276667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="M25" s="7">
         <v>609</v>
@@ -8115,13 +8037,13 @@
         <v>493550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8058,13 @@
         <v>638319</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="H26" s="7">
         <v>677</v>
@@ -8151,13 +8073,13 @@
         <v>589074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="M26" s="7">
         <v>1208</v>
@@ -8166,13 +8088,13 @@
         <v>1227393</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8162,13 @@
         <v>539484</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="H28" s="7">
         <v>1034</v>
@@ -8255,13 +8177,13 @@
         <v>775417</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>603</v>
+        <v>253</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="M28" s="7">
         <v>1658</v>
@@ -8270,13 +8192,13 @@
         <v>1314900</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>605</v>
+        <v>222</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8213,13 @@
         <v>2818249</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="H29" s="7">
         <v>4271</v>
@@ -8306,28 +8228,28 @@
         <v>2997105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>260</v>
       </c>
       <c r="M29" s="7">
         <v>6993</v>
       </c>
       <c r="N29" s="7">
-        <v>5815355</v>
+        <v>5815356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>231</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8291,7 @@
         <v>8651</v>
       </c>
       <c r="N30" s="7">
-        <v>7130255</v>
+        <v>7130256</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3522E8F-1010-451A-81B2-EB07AE5C649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{463330EB-975B-452C-B0A0-09C1F4C20D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41C3C7A4-0A29-4486-9236-5156EF6948EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{402EC79E-620A-47E7-940D-A79AC832C14A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,61%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>73,39%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>15,83%</t>
   </si>
   <si>
-    <t>23,02%</t>
+    <t>23,36%</t>
   </si>
   <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,98%</t>
+    <t>76,64%</t>
   </si>
   <si>
     <t>84,17%</t>
@@ -176,19 +176,19 @@
     <t>70,33%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1564 +254,1576 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>11,6%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>83,12%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E2B096-252E-49F6-AE2F-149D181FF5C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDAEFCE-E2BE-4FE1-9C24-78AC39725310}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3128,7 +3140,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -3137,13 +3149,13 @@
         <v>43532</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3152,13 +3164,13 @@
         <v>58592</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3185,13 @@
         <v>255750</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -3188,13 +3200,13 @@
         <v>234612</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>480</v>
@@ -3203,13 +3215,13 @@
         <v>490363</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3277,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3289,13 @@
         <v>46869</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -3292,13 +3304,13 @@
         <v>68920</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -3307,13 +3319,13 @@
         <v>115788</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3340,13 @@
         <v>568158</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>553</v>
@@ -3343,10 +3355,10 @@
         <v>568319</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>139</v>
@@ -3623,7 +3635,7 @@
         <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3650,13 @@
         <v>2810062</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2696</v>
@@ -3653,28 +3665,28 @@
         <v>2746755</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5449</v>
       </c>
       <c r="N29" s="7">
-        <v>5556818</v>
+        <v>5556817</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3728,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6649249</v>
+        <v>6649248</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3730,7 +3742,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3754,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDF7E4-A2E8-444E-B2A9-D4C5757BD40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF6573E-E047-4771-8B3D-069F187DAEFC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3771,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3876,39 +3888,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,39 +3933,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,39 +3978,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4027,13 @@
         <v>84356</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
@@ -4030,13 +4042,13 @@
         <v>103131</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>170</v>
@@ -4045,13 +4057,13 @@
         <v>187487</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4078,13 @@
         <v>420154</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -4081,13 +4093,13 @@
         <v>420634</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -4096,13 +4108,13 @@
         <v>840788</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4182,13 @@
         <v>36637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4185,13 +4197,13 @@
         <v>43855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -4200,13 +4212,13 @@
         <v>80492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4233,13 @@
         <v>287409</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -4236,13 +4248,13 @@
         <v>294986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>561</v>
@@ -4251,13 +4263,13 @@
         <v>582395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,28 +4337,28 @@
         <v>96975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
       </c>
       <c r="I13" s="7">
-        <v>144679</v>
+        <v>144678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -4355,13 +4367,13 @@
         <v>241653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4388,13 @@
         <v>562259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -4391,13 +4403,13 @@
         <v>522613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>1011</v>
@@ -4406,13 +4418,13 @@
         <v>1084872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,7 +4451,7 @@
         <v>620</v>
       </c>
       <c r="I15" s="7">
-        <v>667292</v>
+        <v>667291</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4480,13 +4492,13 @@
         <v>44023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4495,13 +4507,13 @@
         <v>58064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4510,13 +4522,13 @@
         <v>102086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4543,13 @@
         <v>168595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4546,13 +4558,13 @@
         <v>161527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -4561,13 +4573,13 @@
         <v>330123</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4647,13 @@
         <v>35362</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -4650,13 +4662,13 @@
         <v>40842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4665,13 +4677,13 @@
         <v>76204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4698,13 @@
         <v>237565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4701,13 +4713,13 @@
         <v>236060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -4716,13 +4728,13 @@
         <v>473625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4790,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4790,13 +4802,13 @@
         <v>90074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -4808,10 +4820,10 @@
         <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -4820,13 +4832,13 @@
         <v>181679</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4853,13 @@
         <v>566356</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>546</v>
@@ -4859,10 +4871,10 @@
         <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1076</v>
@@ -4871,13 +4883,13 @@
         <v>1157658</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4957,13 @@
         <v>192268</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>172</v>
@@ -4960,13 +4972,13 @@
         <v>188887</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>345</v>
@@ -4975,13 +4987,13 @@
         <v>381155</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5008,13 @@
         <v>583719</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>584</v>
@@ -5011,13 +5023,13 @@
         <v>633805</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1125</v>
@@ -5026,13 +5038,13 @@
         <v>1217524</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,7 +5255,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5267,7 +5279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D851B30-33A9-42BF-A292-76FD2ADF3416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C0ED7A-EB91-4CA9-8E48-40E8C50DCB57}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5421,13 +5433,13 @@
         <v>117995</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5454,13 @@
         <v>237229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>212</v>
@@ -5457,13 +5469,13 @@
         <v>220743</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>427</v>
@@ -5472,13 +5484,13 @@
         <v>457972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5558,13 @@
         <v>91189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
@@ -5561,13 +5573,13 @@
         <v>103612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -5576,13 +5588,13 @@
         <v>194801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5609,13 @@
         <v>409390</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>387</v>
@@ -5612,13 +5624,13 @@
         <v>417553</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>774</v>
@@ -5627,13 +5639,13 @@
         <v>826942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5713,13 @@
         <v>46103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5716,13 +5728,13 @@
         <v>62382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5731,13 +5743,13 @@
         <v>108485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5764,13 @@
         <v>270556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>270</v>
@@ -5767,13 +5779,13 @@
         <v>273043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>552</v>
@@ -5782,13 +5794,13 @@
         <v>543599</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5868,13 @@
         <v>29038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -5874,10 +5886,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -5886,13 +5898,13 @@
         <v>69193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5919,13 @@
         <v>339868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -5925,10 +5937,10 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>648</v>
@@ -5937,13 +5949,13 @@
         <v>686071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6023,13 @@
         <v>27946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -6026,13 +6038,13 @@
         <v>19198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6041,13 +6053,13 @@
         <v>47144</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6074,13 @@
         <v>182209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6077,13 +6089,13 @@
         <v>199389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -6092,13 +6104,13 @@
         <v>381598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6178,13 @@
         <v>41878</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -6181,13 +6193,13 @@
         <v>66472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>146</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -6196,13 +6208,13 @@
         <v>108350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6229,13 @@
         <v>221245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6232,13 +6244,13 @@
         <v>206643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>420</v>
@@ -6247,13 +6259,13 @@
         <v>427888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6321,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6321,13 +6333,13 @@
         <v>116799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -6336,13 +6348,13 @@
         <v>140719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -6351,13 +6363,13 @@
         <v>257518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6384,13 @@
         <v>536191</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -6387,13 +6399,13 @@
         <v>541389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>983</v>
@@ -6402,13 +6414,13 @@
         <v>1077579</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6488,13 @@
         <v>98102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6491,13 +6503,13 @@
         <v>122142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -6506,13 +6518,13 @@
         <v>220243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6539,13 @@
         <v>676834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>213</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>645</v>
@@ -6542,13 +6554,13 @@
         <v>702712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>1295</v>
@@ -6557,13 +6569,13 @@
         <v>1379547</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6643,13 @@
         <v>505503</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>569</v>
@@ -6646,13 +6658,13 @@
         <v>618226</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>1051</v>
@@ -6661,13 +6673,13 @@
         <v>1123729</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>321</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6694,13 @@
         <v>2873521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>2752</v>
@@ -6697,13 +6709,13 @@
         <v>2907675</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>5487</v>
@@ -6712,13 +6724,13 @@
         <v>5781197</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6786,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6798,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53C42C3-1642-4863-8178-8EA6F52EFD32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F98EE00-A565-4B14-86F5-3D4D76A6F77E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6815,7 +6827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6922,13 +6934,13 @@
         <v>24624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>455</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -6937,13 +6949,13 @@
         <v>23599</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -6952,13 +6964,13 @@
         <v>48224</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6985,13 @@
         <v>232229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>463</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>485</v>
@@ -6988,13 +7000,13 @@
         <v>245654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>779</v>
@@ -7003,13 +7015,13 @@
         <v>477881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>469</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7089,13 @@
         <v>59306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -7092,13 +7104,13 @@
         <v>72746</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>476</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -7107,13 +7119,13 @@
         <v>132051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7140,13 @@
         <v>459991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H8" s="7">
         <v>614</v>
@@ -7143,10 +7155,10 @@
         <v>479292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>485</v>
@@ -7238,7 +7250,7 @@
         <v>490</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -7262,13 +7274,13 @@
         <v>108905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>494</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7295,13 @@
         <v>264484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -7298,13 +7310,13 @@
         <v>291781</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M11" s="7">
         <v>692</v>
@@ -7313,13 +7325,13 @@
         <v>556265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,10 +7399,10 @@
         <v>33032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>73</v>
@@ -7402,7 +7414,7 @@
         <v>45875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>505</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>506</v>
@@ -7444,7 +7456,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -7453,13 +7465,13 @@
         <v>378481</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
@@ -7468,13 +7480,13 @@
         <v>664671</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7554,13 @@
         <v>35558</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -7557,13 +7569,13 @@
         <v>33729</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>522</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -7572,7 +7584,7 @@
         <v>69287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>522</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>523</v>
@@ -7596,10 +7608,10 @@
         <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -7608,13 +7620,13 @@
         <v>197767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>633</v>
@@ -7623,13 +7635,13 @@
         <v>358201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7709,13 @@
         <v>50175</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -7715,10 +7727,10 @@
         <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="M19" s="7">
         <v>186</v>
@@ -7727,13 +7739,13 @@
         <v>99076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>535</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7760,13 @@
         <v>226503</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -7766,10 +7778,10 @@
         <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>644</v>
@@ -7778,13 +7790,13 @@
         <v>453225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>542</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,7 +7852,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7867,13 +7879,13 @@
         <v>209639</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>226</v>
@@ -7882,13 +7894,13 @@
         <v>284900</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7915,13 @@
         <v>550099</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>808</v>
@@ -7918,13 +7930,13 @@
         <v>588335</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>1320</v>
@@ -7933,13 +7945,13 @@
         <v>1138435</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,13 +8019,13 @@
         <v>216883</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>381</v>
@@ -8022,13 +8034,13 @@
         <v>276667</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M25" s="7">
         <v>609</v>
@@ -8037,13 +8049,13 @@
         <v>493550</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,13 +8070,13 @@
         <v>638319</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H26" s="7">
         <v>677</v>
@@ -8073,13 +8085,13 @@
         <v>589074</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M26" s="7">
         <v>1208</v>
@@ -8088,13 +8100,13 @@
         <v>1227393</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,13 +8174,13 @@
         <v>539484</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H28" s="7">
         <v>1034</v>
@@ -8177,13 +8189,13 @@
         <v>775417</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M28" s="7">
         <v>1658</v>
@@ -8192,13 +8204,13 @@
         <v>1314900</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>78</v>
+        <v>584</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,13 +8225,13 @@
         <v>2818249</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H29" s="7">
         <v>4271</v>
@@ -8228,13 +8240,13 @@
         <v>2997105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>260</v>
+        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>6993</v>
@@ -8243,13 +8255,13 @@
         <v>5815356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>231</v>
+        <v>592</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>86</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,7 +8317,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{463330EB-975B-452C-B0A0-09C1F4C20D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BED0C6-6FFF-4299-877E-44BC5635C1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{402EC79E-620A-47E7-940D-A79AC832C14A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CB31520-780A-424F-A648-FCC9311128F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,1756 +74,1888 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>39,36%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDAEFCE-E2BE-4FE1-9C24-78AC39725310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE47EC8-1637-400E-A91D-9664A49DA3A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2353,10 +2485,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7">
-        <v>72419</v>
+        <v>210879</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2368,10 +2500,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="I4" s="7">
-        <v>85964</v>
+        <v>224290</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2383,10 +2515,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>144</v>
+        <v>413</v>
       </c>
       <c r="N4" s="7">
-        <v>158383</v>
+        <v>435169</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2404,10 +2536,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>199754</v>
+        <v>61294</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2419,10 +2551,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>174874</v>
+        <v>36548</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2434,10 +2566,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>374628</v>
+        <v>97842</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2508,10 +2640,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="D7" s="7">
-        <v>95184</v>
+        <v>292046</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2523,10 +2655,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="I7" s="7">
-        <v>149517</v>
+        <v>318618</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2538,10 +2670,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>238</v>
+        <v>594</v>
       </c>
       <c r="N7" s="7">
-        <v>244701</v>
+        <v>610664</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2559,10 +2691,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>373</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>395055</v>
+        <v>198193</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2574,10 +2706,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>351</v>
+        <v>183</v>
       </c>
       <c r="I8" s="7">
-        <v>354432</v>
+        <v>185331</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2589,10 +2721,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>724</v>
+        <v>368</v>
       </c>
       <c r="N8" s="7">
-        <v>749487</v>
+        <v>383524</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2663,10 +2795,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>22806</v>
+        <v>148827</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2678,10 +2810,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I10" s="7">
-        <v>34850</v>
+        <v>137824</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2693,10 +2825,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="N10" s="7">
-        <v>57656</v>
+        <v>286650</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2714,10 +2846,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>296040</v>
+        <v>170019</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2729,10 +2861,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="I11" s="7">
-        <v>300562</v>
+        <v>197588</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2744,10 +2876,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>588</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>596602</v>
+        <v>367608</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2818,10 +2950,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>48100</v>
+        <v>229655</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2833,10 +2965,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="I13" s="7">
-        <v>54021</v>
+        <v>228544</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2848,10 +2980,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
+        <v>468</v>
       </c>
       <c r="N13" s="7">
-        <v>102121</v>
+        <v>458199</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2869,10 +3001,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7">
-        <v>310571</v>
+        <v>129016</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2884,10 +3016,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="I14" s="7">
-        <v>317435</v>
+        <v>142912</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2899,10 +3031,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>642</v>
+        <v>278</v>
       </c>
       <c r="N14" s="7">
-        <v>628006</v>
+        <v>271928</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2973,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>37511</v>
+        <v>139042</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2988,10 +3120,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I16" s="7">
-        <v>46854</v>
+        <v>153588</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -3003,10 +3135,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="N16" s="7">
-        <v>84364</v>
+        <v>292630</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -3024,10 +3156,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>165797</v>
+        <v>64266</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3039,10 +3171,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>159819</v>
+        <v>53085</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -3054,10 +3186,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>321</v>
+        <v>113</v>
       </c>
       <c r="N17" s="7">
-        <v>325617</v>
+        <v>117351</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -3128,10 +3260,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="D19" s="7">
-        <v>15061</v>
+        <v>159555</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3140,37 +3272,37 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I19" s="7">
-        <v>43532</v>
+        <v>153930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="N19" s="7">
-        <v>58592</v>
+        <v>313485</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,49 +3311,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="D20" s="7">
-        <v>255750</v>
+        <v>111256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="I20" s="7">
-        <v>234612</v>
+        <v>124214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>480</v>
+        <v>228</v>
       </c>
       <c r="N20" s="7">
-        <v>490363</v>
+        <v>235470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,55 +3409,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="D22" s="7">
-        <v>46869</v>
+        <v>264879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>68920</v>
+        <v>228046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>116</v>
+        <v>487</v>
       </c>
       <c r="N22" s="7">
-        <v>115788</v>
+        <v>492925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,49 +3466,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>549</v>
+        <v>338</v>
       </c>
       <c r="D23" s="7">
-        <v>568158</v>
+        <v>350148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>553</v>
+        <v>393</v>
       </c>
       <c r="I23" s="7">
-        <v>568319</v>
+        <v>409193</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1102</v>
+        <v>731</v>
       </c>
       <c r="N23" s="7">
-        <v>1136478</v>
+        <v>759341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,55 +3564,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>123</v>
+        <v>536</v>
       </c>
       <c r="D25" s="7">
-        <v>124014</v>
+        <v>541178</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>136</v>
+        <v>588</v>
       </c>
       <c r="I25" s="7">
-        <v>146810</v>
+        <v>623540</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>259</v>
+        <v>1124</v>
       </c>
       <c r="N25" s="7">
-        <v>270824</v>
+        <v>1164717</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,49 +3621,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>612</v>
+        <v>199</v>
       </c>
       <c r="D26" s="7">
-        <v>618937</v>
+        <v>201773</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>609</v>
+        <v>157</v>
       </c>
       <c r="I26" s="7">
-        <v>636701</v>
+        <v>159971</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>1221</v>
+        <v>356</v>
       </c>
       <c r="N26" s="7">
-        <v>1255638</v>
+        <v>361745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,49 +3725,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>457</v>
+        <v>1961</v>
       </c>
       <c r="D28" s="7">
-        <v>461964</v>
+        <v>1986059</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>599</v>
+        <v>2009</v>
       </c>
       <c r="I28" s="7">
-        <v>630467</v>
+        <v>2068380</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>1056</v>
+        <v>3970</v>
       </c>
       <c r="N28" s="7">
-        <v>1092431</v>
+        <v>4054439</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,49 +3776,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2753</v>
+        <v>1249</v>
       </c>
       <c r="D29" s="7">
-        <v>2810062</v>
+        <v>1285967</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
-        <v>2696</v>
+        <v>1286</v>
       </c>
       <c r="I29" s="7">
-        <v>2746755</v>
+        <v>1308842</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
-        <v>5449</v>
+        <v>2535</v>
       </c>
       <c r="N29" s="7">
-        <v>5556817</v>
+        <v>2594809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3874,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF6573E-E047-4771-8B3D-069F187DAEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789134B5-4EB7-4B8F-8EA8-7DDA4AF57DCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,7 +3915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,39 +4020,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,39 +4065,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,39 +4110,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,49 +4153,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D7" s="7">
-        <v>84356</v>
+        <v>255245</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="I7" s="7">
-        <v>103131</v>
+        <v>270182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>170</v>
+        <v>485</v>
       </c>
       <c r="N7" s="7">
-        <v>187487</v>
+        <v>525428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,49 +4204,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>395</v>
+        <v>236</v>
       </c>
       <c r="D8" s="7">
-        <v>420154</v>
+        <v>249265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="I8" s="7">
-        <v>420634</v>
+        <v>253583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
-        <v>781</v>
+        <v>466</v>
       </c>
       <c r="N8" s="7">
-        <v>840788</v>
+        <v>502848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,7 +4288,7 @@
         <v>951</v>
       </c>
       <c r="N9" s="7">
-        <v>1028275</v>
+        <v>1028276</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4176,49 +4308,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7">
-        <v>36637</v>
+        <v>190140</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="I10" s="7">
-        <v>43855</v>
+        <v>226978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="N10" s="7">
-        <v>80492</v>
+        <v>417118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,49 +4359,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>287409</v>
+        <v>133906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7">
-        <v>294986</v>
+        <v>111863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
-        <v>561</v>
+        <v>239</v>
       </c>
       <c r="N11" s="7">
-        <v>582395</v>
+        <v>245769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,49 +4463,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="D13" s="7">
-        <v>96975</v>
+        <v>361502</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="I13" s="7">
-        <v>144678</v>
+        <v>427844</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
+        <v>738</v>
+      </c>
+      <c r="N13" s="7">
+        <v>789346</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="N13" s="7">
-        <v>241653</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,49 +4514,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>525</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>562259</v>
+        <v>297732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="7">
         <v>224</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="7">
-        <v>486</v>
-      </c>
       <c r="I14" s="7">
-        <v>522613</v>
+        <v>239447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
-        <v>1011</v>
+        <v>498</v>
       </c>
       <c r="N14" s="7">
-        <v>1084872</v>
+        <v>537179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,49 +4618,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>44023</v>
+        <v>112136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="I16" s="7">
-        <v>58064</v>
+        <v>147123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="N16" s="7">
-        <v>102086</v>
+        <v>259260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,49 +4669,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7">
-        <v>168595</v>
+        <v>100482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>161527</v>
+        <v>72468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>330123</v>
+        <v>172949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,49 +4773,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="D19" s="7">
-        <v>35362</v>
+        <v>161058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I19" s="7">
-        <v>40842</v>
+        <v>186589</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="N19" s="7">
-        <v>76204</v>
+        <v>347647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,49 +4824,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="D20" s="7">
-        <v>237565</v>
+        <v>111869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="I20" s="7">
-        <v>236060</v>
+        <v>90313</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="N20" s="7">
-        <v>473625</v>
+        <v>202182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,55 +4922,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="D22" s="7">
-        <v>90074</v>
+        <v>364106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="I22" s="7">
-        <v>91605</v>
+        <v>416086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>163</v>
+        <v>712</v>
       </c>
       <c r="N22" s="7">
-        <v>181679</v>
+        <v>780192</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,49 +4979,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>530</v>
+        <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>566356</v>
+        <v>292324</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>546</v>
+        <v>249</v>
       </c>
       <c r="I23" s="7">
-        <v>591301</v>
+        <v>266820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>1076</v>
+        <v>527</v>
       </c>
       <c r="N23" s="7">
-        <v>1157658</v>
+        <v>559145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,55 +5077,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>173</v>
+        <v>607</v>
       </c>
       <c r="D25" s="7">
-        <v>192268</v>
+        <v>665299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
-        <v>172</v>
+        <v>632</v>
       </c>
       <c r="I25" s="7">
-        <v>188887</v>
+        <v>685738</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
-        <v>345</v>
+        <v>1239</v>
       </c>
       <c r="N25" s="7">
-        <v>381155</v>
+        <v>1351037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,49 +5134,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>541</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7">
-        <v>583719</v>
+        <v>110688</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
-        <v>584</v>
+        <v>124</v>
       </c>
       <c r="I26" s="7">
-        <v>633805</v>
+        <v>136954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
-        <v>1125</v>
+        <v>231</v>
       </c>
       <c r="N26" s="7">
-        <v>1217524</v>
+        <v>247642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,49 +5238,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>530</v>
+        <v>1963</v>
       </c>
       <c r="D28" s="7">
-        <v>579695</v>
+        <v>2109486</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
-        <v>613</v>
+        <v>2185</v>
       </c>
       <c r="I28" s="7">
-        <v>671062</v>
+        <v>2360541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
-        <v>1143</v>
+        <v>4148</v>
       </c>
       <c r="N28" s="7">
-        <v>1250757</v>
+        <v>4470028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,49 +5289,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2658</v>
+        <v>1225</v>
       </c>
       <c r="D29" s="7">
-        <v>2826057</v>
+        <v>1296266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
-        <v>2663</v>
+        <v>1091</v>
       </c>
       <c r="I29" s="7">
-        <v>2860926</v>
+        <v>1171447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
-        <v>5321</v>
+        <v>2316</v>
       </c>
       <c r="N29" s="7">
-        <v>5686984</v>
+        <v>2467713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5387,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C0ED7A-EB91-4CA9-8E48-40E8C50DCB57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737F135-4406-4A1B-8ECC-01C0DC7E16B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,7 +5428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5397,49 +5529,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="D4" s="7">
-        <v>54448</v>
+        <v>193323</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="I4" s="7">
-        <v>63547</v>
+        <v>205880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="N4" s="7">
-        <v>117995</v>
+        <v>399203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,49 +5580,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>237229</v>
+        <v>98354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>220743</v>
+        <v>78410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="N5" s="7">
-        <v>457972</v>
+        <v>176764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,49 +5684,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>86</v>
+        <v>382</v>
       </c>
       <c r="D7" s="7">
-        <v>91189</v>
+        <v>404233</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="I7" s="7">
-        <v>103612</v>
+        <v>422905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
-        <v>181</v>
+        <v>769</v>
       </c>
       <c r="N7" s="7">
-        <v>194801</v>
+        <v>827137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,49 +5735,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>387</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7">
-        <v>409390</v>
+        <v>96346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
-        <v>387</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>417553</v>
+        <v>98260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
-        <v>774</v>
+        <v>186</v>
       </c>
       <c r="N8" s="7">
-        <v>826942</v>
+        <v>194606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,49 +5839,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="D10" s="7">
-        <v>46103</v>
+        <v>229718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="I10" s="7">
-        <v>62382</v>
+        <v>255457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="N10" s="7">
-        <v>108485</v>
+        <v>485175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,49 +5890,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>270556</v>
+        <v>86941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7">
-        <v>273043</v>
+        <v>79968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
-        <v>552</v>
+        <v>170</v>
       </c>
       <c r="N11" s="7">
-        <v>543599</v>
+        <v>166909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,49 +5994,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>29038</v>
+        <v>131397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I13" s="7">
-        <v>40155</v>
+        <v>152194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="N13" s="7">
-        <v>69193</v>
+        <v>283591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,49 +6045,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>339868</v>
+        <v>237509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="I14" s="7">
-        <v>346204</v>
+        <v>234165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
-        <v>648</v>
+        <v>450</v>
       </c>
       <c r="N14" s="7">
-        <v>686071</v>
+        <v>471673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,49 +6149,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="D16" s="7">
-        <v>27946</v>
+        <v>178498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="I16" s="7">
-        <v>19198</v>
+        <v>187662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="N16" s="7">
-        <v>47144</v>
+        <v>366160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,49 +6200,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>182209</v>
+        <v>31657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>199389</v>
+        <v>30925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
-        <v>388</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>381598</v>
+        <v>62582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,49 +6304,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="D19" s="7">
-        <v>41878</v>
+        <v>190853</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="I19" s="7">
-        <v>66472</v>
+        <v>209942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="N19" s="7">
-        <v>108350</v>
+        <v>400796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,49 +6355,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7">
-        <v>221245</v>
+        <v>72270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="I20" s="7">
-        <v>206643</v>
+        <v>63173</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
-        <v>420</v>
+        <v>134</v>
       </c>
       <c r="N20" s="7">
-        <v>427888</v>
+        <v>135442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,55 +6453,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="D22" s="7">
-        <v>116799</v>
+        <v>515620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
-        <v>129</v>
+        <v>488</v>
       </c>
       <c r="I22" s="7">
-        <v>140719</v>
+        <v>522531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
-        <v>232</v>
+        <v>943</v>
       </c>
       <c r="N22" s="7">
-        <v>257518</v>
+        <v>1038151</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,49 +6510,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>474</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7">
-        <v>536191</v>
+        <v>137370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
-        <v>509</v>
+        <v>150</v>
       </c>
       <c r="I23" s="7">
-        <v>541389</v>
+        <v>159577</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
-        <v>983</v>
+        <v>272</v>
       </c>
       <c r="N23" s="7">
-        <v>1077579</v>
+        <v>296946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,55 +6608,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>97</v>
+        <v>634</v>
       </c>
       <c r="D25" s="7">
-        <v>98102</v>
+        <v>654811</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>206</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
-        <v>109</v>
+        <v>663</v>
       </c>
       <c r="I25" s="7">
-        <v>122142</v>
+        <v>726395</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
-        <v>206</v>
+        <v>1297</v>
       </c>
       <c r="N25" s="7">
-        <v>220243</v>
+        <v>1381206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,49 +6665,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>650</v>
+        <v>113</v>
       </c>
       <c r="D26" s="7">
-        <v>676834</v>
+        <v>120125</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>213</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
-        <v>645</v>
+        <v>91</v>
       </c>
       <c r="I26" s="7">
-        <v>702712</v>
+        <v>98459</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
-        <v>1295</v>
+        <v>204</v>
       </c>
       <c r="N26" s="7">
-        <v>1379547</v>
+        <v>218584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,49 +6769,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>482</v>
+        <v>2379</v>
       </c>
       <c r="D28" s="7">
-        <v>505503</v>
+        <v>2498453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H28" s="7">
-        <v>569</v>
+        <v>2517</v>
       </c>
       <c r="I28" s="7">
-        <v>618226</v>
+        <v>2682965</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
-        <v>1051</v>
+        <v>4896</v>
       </c>
       <c r="N28" s="7">
-        <v>1123729</v>
+        <v>5181419</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,49 +6820,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2735</v>
+        <v>838</v>
       </c>
       <c r="D29" s="7">
-        <v>2873521</v>
+        <v>880571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
-        <v>2752</v>
+        <v>804</v>
       </c>
       <c r="I29" s="7">
-        <v>2907675</v>
+        <v>842936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
-        <v>5487</v>
+        <v>1642</v>
       </c>
       <c r="N29" s="7">
-        <v>5781197</v>
+        <v>1723507</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6918,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F98EE00-A565-4B14-86F5-3D4D76A6F77E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD8CC96-1313-4949-8409-47A45925957F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6827,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6928,49 +7060,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>24624</v>
+        <v>120394</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="I4" s="7">
-        <v>23599</v>
+        <v>141373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="N4" s="7">
-        <v>48224</v>
+        <v>261766</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,49 +7111,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>232229</v>
+        <v>136459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="H5" s="7">
-        <v>485</v>
+        <v>246</v>
       </c>
       <c r="I5" s="7">
-        <v>245654</v>
+        <v>127880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
-        <v>779</v>
+        <v>407</v>
       </c>
       <c r="N5" s="7">
-        <v>477881</v>
+        <v>264339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,49 +7215,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="D7" s="7">
-        <v>59306</v>
+        <v>289070</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>389</v>
       </c>
       <c r="I7" s="7">
-        <v>72746</v>
+        <v>291598</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>504</v>
       </c>
       <c r="M7" s="7">
-        <v>148</v>
+        <v>606</v>
       </c>
       <c r="N7" s="7">
-        <v>132051</v>
+        <v>580668</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,49 +7266,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>459991</v>
+        <v>230227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="H8" s="7">
-        <v>614</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>479292</v>
+        <v>260440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>512</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="M8" s="7">
-        <v>947</v>
+        <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>939284</v>
+        <v>490667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,49 +7370,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>44644</v>
+        <v>124569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="I10" s="7">
-        <v>64261</v>
+        <v>168861</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="N10" s="7">
-        <v>108905</v>
+        <v>293430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,49 +7421,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>264484</v>
+        <v>184559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="I11" s="7">
-        <v>291781</v>
+        <v>187181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
-        <v>692</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>556265</v>
+        <v>371740</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,49 +7525,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>33032</v>
+        <v>81379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="I13" s="7">
-        <v>45875</v>
+        <v>120089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="N13" s="7">
-        <v>78907</v>
+        <v>201467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,49 +7576,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>286191</v>
+        <v>237844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
-        <v>519</v>
+        <v>397</v>
       </c>
       <c r="I14" s="7">
-        <v>378481</v>
+        <v>304267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
-        <v>770</v>
+        <v>601</v>
       </c>
       <c r="N14" s="7">
-        <v>664671</v>
+        <v>542111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,49 +7680,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="D16" s="7">
-        <v>35558</v>
+        <v>179485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="I16" s="7">
-        <v>33729</v>
+        <v>210936</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
-        <v>136</v>
+        <v>711</v>
       </c>
       <c r="N16" s="7">
-        <v>69287</v>
+        <v>390420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,49 +7731,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>160434</v>
+        <v>16507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>197767</v>
+        <v>20560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
-        <v>633</v>
+        <v>58</v>
       </c>
       <c r="N17" s="7">
-        <v>358201</v>
+        <v>37068</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,49 +7835,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D19" s="7">
-        <v>50175</v>
+        <v>100264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="I19" s="7">
-        <v>48901</v>
+        <v>100988</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>12</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="N19" s="7">
-        <v>99076</v>
+        <v>201253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,49 +7886,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D20" s="7">
-        <v>226503</v>
+        <v>176414</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
-        <v>354</v>
+        <v>247</v>
       </c>
       <c r="I20" s="7">
-        <v>226721</v>
+        <v>174634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>23</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
-        <v>644</v>
+        <v>453</v>
       </c>
       <c r="N20" s="7">
-        <v>453225</v>
+        <v>351048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,55 +7984,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="D22" s="7">
-        <v>75261</v>
+        <v>346238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
-        <v>142</v>
+        <v>514</v>
       </c>
       <c r="I22" s="7">
-        <v>209639</v>
+        <v>468023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
-        <v>226</v>
+        <v>858</v>
       </c>
       <c r="N22" s="7">
-        <v>284900</v>
+        <v>814262</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,49 +8041,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>512</v>
+        <v>252</v>
       </c>
       <c r="D23" s="7">
-        <v>550099</v>
+        <v>279122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
-        <v>808</v>
+        <v>436</v>
       </c>
       <c r="I23" s="7">
-        <v>588335</v>
+        <v>329951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
-        <v>1320</v>
+        <v>688</v>
       </c>
       <c r="N23" s="7">
-        <v>1138435</v>
+        <v>609073</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,55 +8139,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>228</v>
+        <v>636</v>
       </c>
       <c r="D25" s="7">
-        <v>216883</v>
+        <v>651294</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="H25" s="7">
-        <v>381</v>
+        <v>904</v>
       </c>
       <c r="I25" s="7">
-        <v>276667</v>
+        <v>730388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
-        <v>609</v>
+        <v>1540</v>
       </c>
       <c r="N25" s="7">
-        <v>493550</v>
+        <v>1381682</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,49 +8196,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>531</v>
+        <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>638319</v>
+        <v>203908</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
-        <v>677</v>
+        <v>154</v>
       </c>
       <c r="I26" s="7">
-        <v>589074</v>
+        <v>135353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>571</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>573</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
-        <v>1208</v>
+        <v>277</v>
       </c>
       <c r="N26" s="7">
-        <v>1227393</v>
+        <v>339261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>576</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,49 +8300,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1892692</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="D28" s="7">
-        <v>539484</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7">
-        <v>1034</v>
+        <v>3213</v>
       </c>
       <c r="I28" s="7">
-        <v>775417</v>
+        <v>2232257</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>580</v>
+        <v>208</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="M28" s="7">
-        <v>1658</v>
+        <v>5235</v>
       </c>
       <c r="N28" s="7">
-        <v>1314900</v>
+        <v>4124949</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,49 +8351,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2722</v>
+        <v>1324</v>
       </c>
       <c r="D29" s="7">
-        <v>2818249</v>
+        <v>1465041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
-        <v>4271</v>
+        <v>2092</v>
       </c>
       <c r="I29" s="7">
-        <v>2997105</v>
+        <v>1540265</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>589</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>591</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
-        <v>6993</v>
+        <v>3416</v>
       </c>
       <c r="N29" s="7">
-        <v>5815356</v>
+        <v>3005306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,7 +8435,7 @@
         <v>8651</v>
       </c>
       <c r="N30" s="7">
-        <v>7130256</v>
+        <v>7130255</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8317,7 +8449,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BED0C6-6FFF-4299-877E-44BC5635C1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F64C058-7C35-4C54-993C-4EEC752D39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CB31520-780A-424F-A648-FCC9311128F7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{521508D0-4964-461B-85D2-91C9CF0C4DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="644">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -587,7 +587,52 @@
     <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>50,59%</t>
@@ -698,52 +743,58 @@
     <t>40,83%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>52,74%</t>
@@ -1484,478 +1535,442 @@
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>55,37%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE47EC8-1637-400E-A91D-9664A49DA3A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0008B3-3164-40A0-83D9-DCAB53717AEF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3898,7 +3913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789134B5-4EB7-4B8F-8EA8-7DDA4AF57DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835356BF-20D9-46EE-B706-16CFBF84A7A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,43 +4031,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="D4" s="7">
+        <v>188443</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="I4" s="7">
+        <v>213016</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>373</v>
+      </c>
+      <c r="N4" s="7">
+        <v>401459</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,43 +4082,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="D5" s="7">
+        <v>97774</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65324</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="N5" s="7">
+        <v>163098</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,43 +4133,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D6" s="7">
+        <v>286217</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I6" s="7">
+        <v>278340</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>522</v>
+      </c>
+      <c r="N6" s="7">
+        <v>564557</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4192,13 @@
         <v>255245</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>250</v>
@@ -4174,13 +4207,13 @@
         <v>270182</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>485</v>
@@ -4189,13 +4222,13 @@
         <v>525428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4243,13 @@
         <v>249265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>230</v>
@@ -4225,13 +4258,13 @@
         <v>253583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -4240,13 +4273,13 @@
         <v>502848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4347,13 @@
         <v>190140</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -4329,13 +4362,13 @@
         <v>226978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>395</v>
@@ -4344,13 +4377,13 @@
         <v>417118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4398,13 @@
         <v>133906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -4380,13 +4413,13 @@
         <v>111863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>239</v>
@@ -4395,13 +4428,13 @@
         <v>245769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4496,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7">
-        <v>361502</v>
+        <v>173059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="I13" s="7">
-        <v>427844</v>
+        <v>214828</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>738</v>
+        <v>365</v>
       </c>
       <c r="N13" s="7">
-        <v>789346</v>
+        <v>387887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +4547,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
-        <v>297732</v>
+        <v>199958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="I14" s="7">
-        <v>239447</v>
+        <v>174123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="N14" s="7">
-        <v>537179</v>
+        <v>374081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>616</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>659234</v>
+        <v>373017</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4613,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>667291</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4595,10 +4628,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1236</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1326525</v>
+        <v>761968</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4624,13 +4657,13 @@
         <v>112136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -4639,13 +4672,13 @@
         <v>147123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -4654,10 +4687,10 @@
         <v>259260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>110</v>
@@ -4675,13 +4708,13 @@
         <v>100482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>72</v>
@@ -4690,13 +4723,13 @@
         <v>72468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>164</v>
@@ -4705,13 +4738,13 @@
         <v>172949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4812,13 @@
         <v>161058</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -4794,13 +4827,13 @@
         <v>186589</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>335</v>
@@ -4809,13 +4842,13 @@
         <v>347647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4863,13 @@
         <v>111869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -4845,13 +4878,13 @@
         <v>90313</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>191</v>
@@ -4860,13 +4893,13 @@
         <v>202182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,28 +4967,28 @@
         <v>364106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>378</v>
       </c>
       <c r="I22" s="7">
-        <v>416086</v>
+        <v>416087</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>712</v>
@@ -4964,13 +4997,13 @@
         <v>780192</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,16 +5015,16 @@
         <v>278</v>
       </c>
       <c r="D23" s="7">
-        <v>292324</v>
+        <v>292325</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>249</v>
@@ -5000,13 +5033,13 @@
         <v>266820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>527</v>
@@ -5015,13 +5048,13 @@
         <v>559145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,7 +5066,7 @@
         <v>612</v>
       </c>
       <c r="D24" s="7">
-        <v>656430</v>
+        <v>656431</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5048,7 +5081,7 @@
         <v>627</v>
       </c>
       <c r="I24" s="7">
-        <v>682906</v>
+        <v>682907</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5089,13 +5122,13 @@
         <v>665299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>632</v>
@@ -5104,13 +5137,13 @@
         <v>685738</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>1239</v>
@@ -5119,13 +5152,13 @@
         <v>1351037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5173,13 @@
         <v>110688</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>124</v>
@@ -5155,10 +5188,10 @@
         <v>136954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>102</v>
@@ -5170,13 +5203,13 @@
         <v>247642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,16 +5274,16 @@
         <v>1963</v>
       </c>
       <c r="D28" s="7">
-        <v>2109486</v>
+        <v>2109487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>2185</v>
@@ -5259,13 +5292,13 @@
         <v>2360541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>4148</v>
@@ -5274,13 +5307,13 @@
         <v>4470028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5328,13 @@
         <v>1296266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>1091</v>
@@ -5310,13 +5343,13 @@
         <v>1171447</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>2316</v>
@@ -5325,13 +5358,13 @@
         <v>2467713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,7 +5376,7 @@
         <v>3188</v>
       </c>
       <c r="D30" s="7">
-        <v>3405752</v>
+        <v>3405753</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5411,7 +5444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737F135-4406-4A1B-8ECC-01C0DC7E16B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D3C6ED-95B6-43C7-9E2E-E6DE34E12048}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5428,7 +5461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5535,13 +5568,13 @@
         <v>193323</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>198</v>
@@ -5550,13 +5583,13 @@
         <v>205880</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>374</v>
@@ -5565,13 +5598,13 @@
         <v>399203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5619,13 @@
         <v>98354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5601,13 +5634,13 @@
         <v>78410</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>163</v>
@@ -5616,13 +5649,13 @@
         <v>176764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5723,13 @@
         <v>404233</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>387</v>
@@ -5705,13 +5738,13 @@
         <v>422905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>769</v>
@@ -5720,13 +5753,13 @@
         <v>827137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5774,13 @@
         <v>96346</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>95</v>
@@ -5756,13 +5789,13 @@
         <v>98260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>186</v>
@@ -5771,13 +5804,13 @@
         <v>194606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5878,13 @@
         <v>229718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -5860,13 +5893,13 @@
         <v>255457</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>494</v>
@@ -5875,13 +5908,13 @@
         <v>485175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5929,13 @@
         <v>86941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>80</v>
@@ -5911,13 +5944,13 @@
         <v>79968</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>170</v>
@@ -5926,13 +5959,13 @@
         <v>166909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6033,13 @@
         <v>131397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -6015,13 +6048,13 @@
         <v>152194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -6030,13 +6063,13 @@
         <v>283591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6084,13 @@
         <v>237509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>219</v>
@@ -6066,13 +6099,13 @@
         <v>234165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>450</v>
@@ -6081,13 +6114,13 @@
         <v>471673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6188,13 @@
         <v>178498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -6170,13 +6203,13 @@
         <v>187662</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -6185,13 +6218,13 @@
         <v>366160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6239,13 @@
         <v>31657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6221,13 +6254,13 @@
         <v>30925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -6236,13 +6269,13 @@
         <v>62582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6343,13 @@
         <v>190853</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -6325,13 +6358,13 @@
         <v>209942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>388</v>
@@ -6340,13 +6373,13 @@
         <v>400796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6394,13 @@
         <v>72270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -6376,13 +6409,13 @@
         <v>63173</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>134</v>
@@ -6391,13 +6424,13 @@
         <v>135442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6498,13 @@
         <v>515620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>488</v>
@@ -6480,13 +6513,13 @@
         <v>522531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>943</v>
@@ -6495,13 +6528,13 @@
         <v>1038151</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,16 +6546,16 @@
         <v>122</v>
       </c>
       <c r="D23" s="7">
-        <v>137370</v>
+        <v>137369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -6531,13 +6564,13 @@
         <v>159577</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>272</v>
@@ -6546,13 +6579,13 @@
         <v>296946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,7 +6597,7 @@
         <v>577</v>
       </c>
       <c r="D24" s="7">
-        <v>652990</v>
+        <v>652989</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6620,13 +6653,13 @@
         <v>654811</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="H25" s="7">
         <v>663</v>
@@ -6635,13 +6668,13 @@
         <v>726395</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>1297</v>
@@ -6650,13 +6683,13 @@
         <v>1381206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6704,13 @@
         <v>120125</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -6686,13 +6719,13 @@
         <v>98459</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>204</v>
@@ -6701,13 +6734,13 @@
         <v>218584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6808,13 @@
         <v>2498453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>2517</v>
@@ -6790,13 +6823,13 @@
         <v>2682965</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="M28" s="7">
         <v>4896</v>
@@ -6805,13 +6838,13 @@
         <v>5181419</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6859,13 @@
         <v>880571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
         <v>804</v>
@@ -6841,13 +6874,13 @@
         <v>842936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>1642</v>
@@ -6856,13 +6889,13 @@
         <v>1723507</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,7 +6975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD8CC96-1313-4949-8409-47A45925957F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C463E10-9C1C-4D66-9BF9-48B8AA13B6E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6959,7 +6992,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7063,46 +7096,46 @@
         <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>120394</v>
+        <v>140729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="H4" s="7">
         <v>287</v>
       </c>
       <c r="I4" s="7">
-        <v>141373</v>
+        <v>151554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="M4" s="7">
         <v>453</v>
       </c>
       <c r="N4" s="7">
-        <v>261766</v>
+        <v>292284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,46 +7147,46 @@
         <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>136459</v>
+        <v>166848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="H5" s="7">
         <v>246</v>
       </c>
       <c r="I5" s="7">
-        <v>127880</v>
+        <v>135901</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="M5" s="7">
         <v>407</v>
       </c>
       <c r="N5" s="7">
-        <v>264339</v>
+        <v>302748</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,7 +7198,7 @@
         <v>327</v>
       </c>
       <c r="D6" s="7">
-        <v>256853</v>
+        <v>307577</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7180,7 +7213,7 @@
         <v>533</v>
       </c>
       <c r="I6" s="7">
-        <v>269253</v>
+        <v>287455</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7195,7 +7228,7 @@
         <v>860</v>
       </c>
       <c r="N6" s="7">
-        <v>526105</v>
+        <v>595032</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7218,46 +7251,46 @@
         <v>217</v>
       </c>
       <c r="D7" s="7">
-        <v>289070</v>
+        <v>287168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>389</v>
       </c>
       <c r="I7" s="7">
-        <v>291598</v>
+        <v>270874</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
       </c>
       <c r="N7" s="7">
-        <v>580668</v>
+        <v>558041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,46 +7302,46 @@
         <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>230227</v>
+        <v>231222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>260440</v>
+        <v>241789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>490667</v>
+        <v>473011</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7353,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7335,7 +7368,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>552038</v>
+        <v>512663</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7350,7 +7383,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1071335</v>
+        <v>1031052</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7373,46 +7406,46 @@
         <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>124569</v>
+        <v>120920</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>258</v>
       </c>
       <c r="I10" s="7">
-        <v>168861</v>
+        <v>157746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>410</v>
       </c>
       <c r="N10" s="7">
-        <v>293430</v>
+        <v>278666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,46 +7457,46 @@
         <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>184559</v>
+        <v>182628</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7">
         <v>250</v>
       </c>
       <c r="I11" s="7">
-        <v>187181</v>
+        <v>175426</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>371740</v>
+        <v>358054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,7 +7508,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>309128</v>
+        <v>303548</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7490,7 +7523,7 @@
         <v>508</v>
       </c>
       <c r="I12" s="7">
-        <v>356042</v>
+        <v>333172</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7505,7 +7538,7 @@
         <v>853</v>
       </c>
       <c r="N12" s="7">
-        <v>665170</v>
+        <v>636720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7528,46 +7561,46 @@
         <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>81379</v>
+        <v>77007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
       </c>
       <c r="I13" s="7">
-        <v>120089</v>
+        <v>111465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="M13" s="7">
         <v>280</v>
       </c>
       <c r="N13" s="7">
-        <v>201467</v>
+        <v>188472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,46 +7612,46 @@
         <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>237844</v>
+        <v>232691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
       </c>
       <c r="I14" s="7">
-        <v>304267</v>
+        <v>360354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>601</v>
       </c>
       <c r="N14" s="7">
-        <v>542111</v>
+        <v>593045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7663,7 @@
         <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>319223</v>
+        <v>309698</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7645,7 +7678,7 @@
         <v>592</v>
       </c>
       <c r="I15" s="7">
-        <v>424356</v>
+        <v>471819</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7660,7 +7693,7 @@
         <v>881</v>
       </c>
       <c r="N15" s="7">
-        <v>743578</v>
+        <v>781517</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7683,46 +7716,46 @@
         <v>258</v>
       </c>
       <c r="D16" s="7">
-        <v>179485</v>
+        <v>163084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>453</v>
       </c>
       <c r="I16" s="7">
-        <v>210936</v>
+        <v>190022</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
       </c>
       <c r="N16" s="7">
-        <v>390420</v>
+        <v>353106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,46 +7767,46 @@
         <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>16507</v>
+        <v>14974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>20560</v>
+        <v>18252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
       </c>
       <c r="N17" s="7">
-        <v>37068</v>
+        <v>33226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7818,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195992</v>
+        <v>178058</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7800,7 +7833,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7815,7 +7848,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427488</v>
+        <v>386332</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7838,46 +7871,46 @@
         <v>164</v>
       </c>
       <c r="D19" s="7">
-        <v>100264</v>
+        <v>96677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="H19" s="7">
         <v>213</v>
       </c>
       <c r="I19" s="7">
-        <v>100988</v>
+        <v>94368</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="M19" s="7">
         <v>377</v>
       </c>
       <c r="N19" s="7">
-        <v>201253</v>
+        <v>191045</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>228</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,46 +7922,46 @@
         <v>206</v>
       </c>
       <c r="D20" s="7">
-        <v>176414</v>
+        <v>172438</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
       </c>
       <c r="I20" s="7">
-        <v>174634</v>
+        <v>162688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>453</v>
       </c>
       <c r="N20" s="7">
-        <v>351048</v>
+        <v>335126</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,7 +7973,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276678</v>
+        <v>269115</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7955,7 +7988,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7970,7 +8003,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552301</v>
+        <v>526171</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7993,46 +8026,46 @@
         <v>344</v>
       </c>
       <c r="D22" s="7">
-        <v>346238</v>
+        <v>344416</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>514</v>
       </c>
       <c r="I22" s="7">
-        <v>468023</v>
+        <v>536814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>858</v>
       </c>
       <c r="N22" s="7">
-        <v>814262</v>
+        <v>881231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,46 +8077,46 @@
         <v>252</v>
       </c>
       <c r="D23" s="7">
-        <v>279122</v>
+        <v>277585</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H23" s="7">
         <v>436</v>
       </c>
       <c r="I23" s="7">
-        <v>329951</v>
+        <v>306811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M23" s="7">
         <v>688</v>
       </c>
       <c r="N23" s="7">
-        <v>609073</v>
+        <v>584395</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,7 +8128,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>625360</v>
+        <v>622001</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8110,7 +8143,7 @@
         <v>950</v>
       </c>
       <c r="I24" s="7">
-        <v>797974</v>
+        <v>843625</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8125,7 +8158,7 @@
         <v>1546</v>
       </c>
       <c r="N24" s="7">
-        <v>1423335</v>
+        <v>1465626</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8148,46 +8181,46 @@
         <v>636</v>
       </c>
       <c r="D25" s="7">
-        <v>651294</v>
+        <v>551773</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>607</v>
+        <v>191</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H25" s="7">
         <v>904</v>
       </c>
       <c r="I25" s="7">
-        <v>730388</v>
+        <v>603947</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="M25" s="7">
         <v>1540</v>
       </c>
       <c r="N25" s="7">
-        <v>1381682</v>
+        <v>1155720</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,46 +8232,46 @@
         <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>203908</v>
+        <v>373375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>619</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>154</v>
       </c>
       <c r="I26" s="7">
-        <v>135353</v>
+        <v>111513</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M26" s="7">
         <v>277</v>
       </c>
       <c r="N26" s="7">
-        <v>339261</v>
+        <v>484888</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8283,7 @@
         <v>759</v>
       </c>
       <c r="D27" s="7">
-        <v>855202</v>
+        <v>925148</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8265,7 +8298,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>865741</v>
+        <v>715460</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8280,7 +8313,7 @@
         <v>1817</v>
       </c>
       <c r="N27" s="7">
-        <v>1720943</v>
+        <v>1640608</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8303,46 +8336,46 @@
         <v>2022</v>
       </c>
       <c r="D28" s="7">
-        <v>1892692</v>
+        <v>1781775</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H28" s="7">
         <v>3213</v>
       </c>
       <c r="I28" s="7">
-        <v>2232257</v>
+        <v>2116789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>208</v>
+        <v>629</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="M28" s="7">
         <v>5235</v>
       </c>
       <c r="N28" s="7">
-        <v>4124949</v>
+        <v>3898565</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,46 +8387,46 @@
         <v>1324</v>
       </c>
       <c r="D29" s="7">
-        <v>1465041</v>
+        <v>1651761</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H29" s="7">
         <v>2092</v>
       </c>
       <c r="I29" s="7">
-        <v>1540265</v>
+        <v>1512733</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>638</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
         <v>3416</v>
       </c>
       <c r="N29" s="7">
-        <v>3005306</v>
+        <v>3164493</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,7 +8438,7 @@
         <v>3346</v>
       </c>
       <c r="D30" s="7">
-        <v>3357733</v>
+        <v>3433536</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8420,7 +8453,7 @@
         <v>5305</v>
       </c>
       <c r="I30" s="7">
-        <v>3772522</v>
+        <v>3629522</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8435,7 +8468,7 @@
         <v>8651</v>
       </c>
       <c r="N30" s="7">
-        <v>7130255</v>
+        <v>7063058</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
